--- a/graphs/benchmark_testresults.xlsx
+++ b/graphs/benchmark_testresults.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="2"/>
@@ -1230,9 +1230,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1241,6 +1238,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -1417,8 +1417,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2117333816"/>
-        <c:axId val="2117362040"/>
+        <c:axId val="2112203320"/>
+        <c:axId val="2112215368"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1482,11 +1482,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2114355016"/>
-        <c:axId val="2121402696"/>
+        <c:axId val="-2138823976"/>
+        <c:axId val="2114788648"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="2117333816"/>
+        <c:axId val="2112203320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1505,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117362040"/>
+        <c:crossAx val="2112215368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1513,7 +1513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117362040"/>
+        <c:axId val="2112215368"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1535,12 +1535,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117333816"/>
+        <c:crossAx val="2112203320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121402696"/>
+        <c:axId val="2114788648"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1561,14 +1561,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2114355016"/>
+        <c:crossAx val="-2138823976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0E6"/>
         <c:minorUnit val="1.0E6"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2114355016"/>
+        <c:axId val="-2138823976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1577,7 +1577,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121402696"/>
+        <c:crossAx val="2114788648"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1725,8 +1726,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2119317608"/>
-        <c:axId val="2119593544"/>
+        <c:axId val="-2132410056"/>
+        <c:axId val="-2132395960"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1734,6 +1735,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>abs. Error</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="47625">
               <a:noFill/>
@@ -1790,11 +1794,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121166248"/>
-        <c:axId val="2122126408"/>
+        <c:axId val="-2132389592"/>
+        <c:axId val="-2132392856"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="2119317608"/>
+        <c:axId val="-2132410056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,7 +1817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119593544"/>
+        <c:crossAx val="-2132395960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1821,7 +1825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119593544"/>
+        <c:axId val="-2132395960"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1838,27 +1842,61 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="4000"/>
+              <a:defRPr sz="3000"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119317608"/>
+        <c:crossAx val="-2132410056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122126408"/>
+        <c:axId val="-2132392856"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2132389592"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="1.0E7"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2132389592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2132392856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1869,25 +1907,23 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121166248"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1.0E6"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2121166248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122126408"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="4000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2039,8 +2075,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2118029512"/>
-        <c:axId val="2117172984"/>
+        <c:axId val="-2132146696"/>
+        <c:axId val="-2132142088"/>
       </c:barChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2107,11 +2143,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122131864"/>
-        <c:axId val="2121948936"/>
+        <c:axId val="-2132367784"/>
+        <c:axId val="-2132282760"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="2118029512"/>
+        <c:axId val="-2132146696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2130,7 +2166,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117172984"/>
+        <c:crossAx val="-2132142088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2138,7 +2174,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117172984"/>
+        <c:axId val="-2132142088"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2160,12 +2196,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118029512"/>
+        <c:crossAx val="-2132146696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121948936"/>
+        <c:axId val="-2132282760"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2186,12 +2222,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122131864"/>
+        <c:crossAx val="-2132367784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122131864"/>
+        <c:axId val="-2132367784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2236,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121948936"/>
+        <c:crossAx val="-2132282760"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -5488,37 +5525,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G35" workbookViewId="0">
-      <selection activeCell="S91" sqref="S91"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="14" customHeight="1">
       <c r="A3" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="24">
       <c r="B4" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>319</v>
       </c>
     </row>
@@ -5529,10 +5566,10 @@
       <c r="B5" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5543,11 +5580,11 @@
       <c r="B6" s="16">
         <v>3.5200000000000002E-6</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="19">
         <f>D6/10000</f>
         <v>13.507879999999998</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>135078.79999999999</v>
       </c>
     </row>
@@ -5558,11 +5595,11 @@
       <c r="B7">
         <v>5.2899999999999996E-4</v>
       </c>
-      <c r="C7" s="20">
-        <f t="shared" ref="C7:C32" si="0">D7/10000</f>
+      <c r="C7" s="19">
+        <f t="shared" ref="C7:C21" si="0">D7/10000</f>
         <v>3.8676699999999995</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>38676.699999999997</v>
       </c>
     </row>
@@ -5573,11 +5610,11 @@
       <c r="B8" s="16">
         <v>4.9200000000000002E-13</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
         <v>3.8841000000000001</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>38841</v>
       </c>
     </row>
@@ -5588,11 +5625,11 @@
       <c r="B9" s="16">
         <v>1.093E-28</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
         <v>101.33904</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>1013390.4</v>
       </c>
     </row>
@@ -5603,11 +5640,11 @@
       <c r="B10" s="16">
         <v>1.35E-60</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="19">
         <f t="shared" si="0"/>
         <v>3951.3767200000002</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>39513767.200000003</v>
       </c>
     </row>
@@ -5620,10 +5657,10 @@
       <c r="B15" t="s">
         <v>318</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>313</v>
       </c>
     </row>
@@ -5634,10 +5671,10 @@
       <c r="B16" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5648,11 +5685,11 @@
       <c r="B17">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <f t="shared" si="0"/>
         <v>24.674970000000002</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>246749.7</v>
       </c>
     </row>
@@ -5663,11 +5700,11 @@
       <c r="B18">
         <v>17.37</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <f t="shared" si="0"/>
         <v>6.84558</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>68455.8</v>
       </c>
     </row>
@@ -5678,11 +5715,11 @@
       <c r="B19" s="16">
         <v>1.6199999999999999E-8</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <f t="shared" si="0"/>
         <v>6.8914499999999999</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>68914.5</v>
       </c>
     </row>
@@ -5693,11 +5730,11 @@
       <c r="B20" s="16">
         <v>3.6000000000000001E-24</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <f t="shared" si="0"/>
         <v>561.73907999999994</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>5617390.7999999998</v>
       </c>
     </row>
@@ -5708,11 +5745,11 @@
       <c r="B21" s="16">
         <v>4.4300000000000004E-56</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <f t="shared" si="0"/>
         <v>23236.057150000001</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <v>232360571.5</v>
       </c>
     </row>
@@ -5725,10 +5762,10 @@
       <c r="B26" t="s">
         <v>318</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>313</v>
       </c>
     </row>
@@ -5739,10 +5776,10 @@
       <c r="B27">
         <v>4.87E-2</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="19">
         <v>9.4137000000000004</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>323</v>
       </c>
     </row>
@@ -5753,10 +5790,10 @@
       <c r="B28" s="16">
         <v>7.4249999999999998E-7</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="19">
         <v>16.303100000000001</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>163031</v>
       </c>
     </row>
@@ -5767,10 +5804,10 @@
       <c r="B29">
         <v>1.34E-4</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="19">
         <v>4.6475</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>320</v>
       </c>
     </row>
@@ -5781,10 +5818,10 @@
       <c r="B30" s="16">
         <v>1.241E-13</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="19">
         <v>4.6955</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5795,10 +5832,10 @@
       <c r="B31" s="16">
         <v>2.7600000000000002E-29</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="19">
         <v>178.17930000000001</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5809,10 +5846,10 @@
       <c r="B32" s="16">
         <v>3.3999999999999998E-61</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="19">
         <v>7670.7920000000004</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>76707919.400000006</v>
       </c>
     </row>
